--- a/BeautySalonWeb/Order1.xlsx
+++ b/BeautySalonWeb/Order1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R5e73bfded5de4f32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R27e3be53f6214c20"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/BeautySalonWeb/Order1.xlsx
+++ b/BeautySalonWeb/Order1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R5e73bfded5de4f32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Rf25045d7d0d94fb5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,13 +28,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Стрижка (женская)</x:t>
+    <x:t>Стрижка женская</x:t>
   </x:si>
   <x:si>
-    <x:t>Подровнять кончики, сделать каре, стрижка на любой вкус</x:t>
+    <x:t>стрижка</x:t>
   </x:si>
   <x:si>
-    <x:t>1000</x:t>
+    <x:t>300</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -43,10 +43,10 @@
     <x:t>Маникюр</x:t>
   </x:si>
   <x:si>
-    <x:t>Французкий маникюр, покрытие гель-лаком</x:t>
+    <x:t>ноготочки</x:t>
   </x:si>
   <x:si>
-    <x:t>900</x:t>
+    <x:t>400</x:t>
   </x:si>
 </x:sst>
 </file>
